--- a/medicine/Médecine vétérinaire/Embryotomie/Embryotomie.xlsx
+++ b/medicine/Médecine vétérinaire/Embryotomie/Embryotomie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’embryotomie est une opération chirurgicale visant à extraire un embryon, le plus souvent mort, de l’utérus de sa mère. Le fœtus, souvent en fin de gestation, est découpé dans l'utérus de la mère afin de pouvoir être extrait plus facilement, sans léser les tissus maternels. Pratiquée depuis l'Antiquité, elle a été très progressivement évincée à partir de la diffusion des forceps au XIXe siècle jusqu'aux progrès de la césarienne du XXe siècle. 
-L'opération reste utilisée en médecine vétérinaire et garde son utilité dans les régions dépourvues de structures chirurgicales[1].
+L'opération reste utilisée en médecine vétérinaire et garde son utilité dans les régions dépourvues de structures chirurgicales.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Technique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Différent de l’avortement, il se pratique selon plusieurs modalités :
 cléidotomie : section des clavicules en cas de dystocie des épaules ;
@@ -549,11 +563,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'intervention est déjà décrite par Hippocrate au IVe siècle av. J.-C. On a retrouvé les restes d'un nouveau-né qui a subi cette opération dans un site archéologique de -350[2].
-Quand la césarienne était très souvent mortelle pour la patiente se posait le dilemme moral de sauver l'enfant ou la mère. On choisissait le plus souvent de préserver la vie de la mère[2].
-De nombreux instruments ont été développés par les médecins du XIXe siècle[3], notamment pour éviter les blessures maternelles en cas de dérapage de l'instrument.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'intervention est déjà décrite par Hippocrate au IVe siècle av. J.-C. On a retrouvé les restes d'un nouveau-né qui a subi cette opération dans un site archéologique de -350.
+Quand la césarienne était très souvent mortelle pour la patiente se posait le dilemme moral de sauver l'enfant ou la mère. On choisissait le plus souvent de préserver la vie de la mère.
+De nombreux instruments ont été développés par les médecins du XIXe siècle, notamment pour éviter les blessures maternelles en cas de dérapage de l'instrument.
 </t>
         </is>
       </c>
